--- a/test/data/input/entso_e_projects/infrastructure.xlsx
+++ b/test/data/input/entso_e_projects/infrastructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="interconnectors" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <t>Netherlands 4GW</t>
   </si>
   <si>
-    <t>Belgium 2GW</t>
+    <t>German 4GW</t>
   </si>
 </sst>
 </file>
@@ -691,16 +691,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="25.6328125" customWidth="1"/>
+    <col min="1" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -744,7 +744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>934</v>
       </c>
@@ -789,7 +789,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>998</v>
       </c>
@@ -830,11 +830,11 @@
         <v>16</v>
       </c>
       <c r="N3" s="7">
-        <f>L3+M3</f>
+        <f t="shared" ref="N3:N23" si="1">L3+M3</f>
         <v>1671</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1255</v>
       </c>
@@ -875,11 +875,11 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <f>L4+M4</f>
+        <f t="shared" si="1"/>
         <v>856</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1383</v>
       </c>
@@ -920,11 +920,11 @@
         <v>23.9</v>
       </c>
       <c r="N5" s="7">
-        <f>L5+M5</f>
+        <f t="shared" si="1"/>
         <v>929.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1628</v>
       </c>
@@ -953,7 +953,7 @@
         <v>53.6704306907667</v>
       </c>
       <c r="J6" s="12">
-        <v>8.0461970828806209</v>
+        <v>7.8461970829999999</v>
       </c>
       <c r="K6" s="13">
         <v>700</v>
@@ -965,11 +965,11 @@
         <v>32.5</v>
       </c>
       <c r="N6" s="11">
-        <f>L6+M6</f>
+        <f t="shared" si="1"/>
         <v>1632.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1505</v>
       </c>
@@ -1010,11 +1010,11 @@
         <v>4.3</v>
       </c>
       <c r="N7" s="7">
-        <f>L7+M7</f>
+        <f t="shared" si="1"/>
         <v>1314.3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1506</v>
       </c>
@@ -1055,11 +1055,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N8" s="7">
-        <f>L8+M8</f>
+        <f t="shared" si="1"/>
         <v>1379.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1507</v>
       </c>
@@ -1073,10 +1073,10 @@
         <v>86</v>
       </c>
       <c r="E9" s="8">
-        <v>53.480555317602999</v>
+        <v>53.305553199999999</v>
       </c>
       <c r="F9" s="8">
-        <v>6.84727554650238</v>
+        <v>6.7472755470000001</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>44</v>
@@ -1100,11 +1100,11 @@
         <v>4.2</v>
       </c>
       <c r="N9" s="7">
-        <f>L9+M9</f>
+        <f t="shared" si="1"/>
         <v>1237.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1508</v>
       </c>
@@ -1145,11 +1145,11 @@
         <v>5.3</v>
       </c>
       <c r="N10" s="7">
-        <f>L10+M10</f>
+        <f t="shared" si="1"/>
         <v>1644.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1509</v>
       </c>
@@ -1190,11 +1190,11 @@
         <v>5.3</v>
       </c>
       <c r="N11" s="7">
-        <f>L11+M11</f>
+        <f t="shared" si="1"/>
         <v>1666.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1511</v>
       </c>
@@ -1235,11 +1235,11 @@
         <v>5.6</v>
       </c>
       <c r="N12" s="7">
-        <f>L12+M12</f>
+        <f t="shared" si="1"/>
         <v>1865.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1708</v>
       </c>
@@ -1280,11 +1280,11 @@
         <v>28</v>
       </c>
       <c r="N13" s="7">
-        <f>L13+M13</f>
+        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1706</v>
       </c>
@@ -1325,11 +1325,11 @@
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <f>L14+M14</f>
+        <f t="shared" si="1"/>
         <v>774</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>987</v>
       </c>
@@ -1370,11 +1370,11 @@
         <v>7.6</v>
       </c>
       <c r="N15" s="7">
-        <f>L15+M15</f>
+        <f t="shared" si="1"/>
         <v>877.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>810</v>
       </c>
@@ -1415,11 +1415,11 @@
         <v>8.4</v>
       </c>
       <c r="N16" s="7">
-        <f>L16+M16</f>
+        <f t="shared" si="1"/>
         <v>938.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1707</v>
       </c>
@@ -1460,11 +1460,11 @@
         <v>23</v>
       </c>
       <c r="N17" s="11">
-        <f>L17+M17</f>
+        <f t="shared" si="1"/>
         <v>1283</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1677</v>
       </c>
@@ -1505,11 +1505,11 @@
         <v>9.93</v>
       </c>
       <c r="N18" s="7">
-        <f>L18+M18</f>
+        <f t="shared" si="1"/>
         <v>455.93</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>424</v>
       </c>
@@ -1550,11 +1550,11 @@
         <v>23.2</v>
       </c>
       <c r="N19" s="7">
-        <f>L19+M19</f>
+        <f t="shared" si="1"/>
         <v>1681.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="7" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>142</v>
       </c>
@@ -1595,11 +1595,11 @@
         <v>15</v>
       </c>
       <c r="N20" s="7">
-        <f>L20+M20</f>
+        <f t="shared" si="1"/>
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1385</v>
       </c>
@@ -1640,11 +1640,11 @@
         <v>8</v>
       </c>
       <c r="N21" s="7">
-        <f>L21+M21</f>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1382</v>
       </c>
@@ -1685,11 +1685,11 @@
         <v>10</v>
       </c>
       <c r="N22" s="7">
-        <f>L22+M22</f>
+        <f t="shared" si="1"/>
         <v>1685</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>995</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <f>L23+M23</f>
+        <f t="shared" si="1"/>
         <v>661</v>
       </c>
     </row>
@@ -1743,16 +1743,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6328125" customWidth="1"/>
+    <col min="1" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1625</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1504</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>94</v>
       </c>
@@ -1834,15 +1834,15 @@
         <v>4.1033372943740796</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>95</v>
       </c>
       <c r="C5">
-        <v>51.5146819866996</v>
+        <v>54.346104597161798</v>
       </c>
       <c r="D5">
-        <v>2.63116928020884</v>
+        <v>5.5239962168957</v>
       </c>
     </row>
   </sheetData>
